--- a/ExcelTemplate/hoiku/請求書_指定.xlsx
+++ b/ExcelTemplate/hoiku/請求書_指定.xlsx
@@ -2236,9 +2236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A50" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AM74" sqref="AM74:AT74"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2266,15 +2264,15 @@
     <row r="2" spans="3:80">
       <c r="BS2" s="21">
         <f>SUM(BS4:BS300)</f>
-        <v>2222</v>
+        <v>0</v>
       </c>
       <c r="BT2" s="21">
         <f>SUM(BT4:BT300)</f>
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="BU2" s="21">
         <f>SUM(BU4:BU300)</f>
-        <v>111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="3:80" ht="13.5" customHeight="1" thickBot="1">
@@ -3121,15 +3119,9 @@
       <c r="BN13" s="14"/>
       <c r="BQ13" s="25"/>
       <c r="BR13"/>
-      <c r="BS13">
-        <v>2222</v>
-      </c>
-      <c r="BT13">
-        <v>222</v>
-      </c>
-      <c r="BU13">
-        <v>111111</v>
-      </c>
+      <c r="BS13"/>
+      <c r="BT13"/>
+      <c r="BU13"/>
       <c r="BV13" s="24"/>
       <c r="BW13" s="24"/>
       <c r="CA13"/>
@@ -3363,7 +3355,7 @@
       <c r="BE16" s="193"/>
       <c r="BF16" s="197">
         <f>BT2</f>
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="BG16" s="197"/>
       <c r="BH16" s="197"/>
@@ -3423,7 +3415,7 @@
       <c r="AL17" s="118"/>
       <c r="AM17" s="189">
         <f>BU2</f>
-        <v>111111</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="190"/>
       <c r="AO17" s="190"/>
@@ -3447,7 +3439,7 @@
       <c r="BE17" s="195"/>
       <c r="BF17" s="196">
         <f>BS2</f>
-        <v>2222</v>
+        <v>0</v>
       </c>
       <c r="BG17" s="196"/>
       <c r="BH17" s="196"/>
